--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value236.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value236.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4570690240129053</v>
+        <v>1.186905860900879</v>
       </c>
       <c r="B1">
-        <v>0.4766377022326753</v>
+        <v>2.179807901382446</v>
       </c>
       <c r="C1">
-        <v>0.5300757940700566</v>
+        <v>3.686401128768921</v>
       </c>
       <c r="D1">
-        <v>0.8054994858987975</v>
+        <v>3.305572032928467</v>
       </c>
       <c r="E1">
-        <v>2.084106250300793</v>
+        <v>1.143163442611694</v>
       </c>
     </row>
   </sheetData>
